--- a/review_data/pay/no_review.xlsx
+++ b/review_data/pay/no_review.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400">
   <si>
     <t>足坛大师-第一足球经理巨作</t>
   </si>
@@ -839,6 +839,381 @@
   </si>
   <si>
     <t>骑砍与攻城：风云再起战三国</t>
+  </si>
+  <si>
+    <t>莽荒诀-混沌修仙力作 三世情缘开启</t>
+  </si>
+  <si>
+    <t>幻想学园-情侣恋爱冒险社交手游</t>
+  </si>
+  <si>
+    <t>咚嗒嗒部落-像素番薯人大作战！</t>
+  </si>
+  <si>
+    <t>秒抢红包神器外挂助手苹果版app</t>
+  </si>
+  <si>
+    <t>英雄无敌3死亡阴影-大型单机挂机游戏</t>
+  </si>
+  <si>
+    <t>Ys Chronicles 1</t>
+  </si>
+  <si>
+    <t>合战忍者村物语</t>
+  </si>
+  <si>
+    <t>侵略Invasion-3D大型科幻星际策略沙盒游戏</t>
+  </si>
+  <si>
+    <t>This War of Mine</t>
+  </si>
+  <si>
+    <t>Palette Paris（梦幻巴黎）</t>
+  </si>
+  <si>
+    <t>Palette Nara</t>
+  </si>
+  <si>
+    <t>青云剑侠传-全新玄幻中国风ARPG网络手游</t>
+  </si>
+  <si>
+    <t>坦克：挂机大战</t>
+  </si>
+  <si>
+    <t>御龙三国-大型国战无双手游</t>
+  </si>
+  <si>
+    <t>挂机群侠传-经典武侠放置手游（官方正版）</t>
+  </si>
+  <si>
+    <t>Palette Summer （清涼夏日）</t>
+  </si>
+  <si>
+    <t>永恒魔域-3D魔幻巅峰对决热血手游</t>
+  </si>
+  <si>
+    <t>凡人修神录-跨服帮派竞技手游！</t>
+  </si>
+  <si>
+    <t>剑灵世界-凡人修仙热门诛神动作手游</t>
+  </si>
+  <si>
+    <t>英雄的纷争-至强策略沙盘对决手游</t>
+  </si>
+  <si>
+    <t>小小三国录-2017年度最萌卡牌策略手游</t>
+  </si>
+  <si>
+    <t>三国霸业-最新三国策略竞技手游</t>
+  </si>
+  <si>
+    <t>五虎上将-可能是最好玩的三国手游</t>
+  </si>
+  <si>
+    <t>进击吧小精灵  2017进化养成RPG手游!</t>
+  </si>
+  <si>
+    <t>圣魔大陆-巅峰对决</t>
+  </si>
+  <si>
+    <t>黑暗传奇纪元-魔域战争公会争霸火热开启</t>
+  </si>
+  <si>
+    <t>莽荒传说-蛮荒纪新版策略手游</t>
+  </si>
+  <si>
+    <t>悟空战吕布-新纪元乱斗仙侠卡牌手游</t>
+  </si>
+  <si>
+    <t>决斗怪兽-完美复刻国民动漫</t>
+  </si>
+  <si>
+    <t>夺塔奇兵-攻城国战热血塔防游戏</t>
+  </si>
+  <si>
+    <t>武侠挂机传-武侠RPG生存类单机游戏</t>
+  </si>
+  <si>
+    <t>牛股学校</t>
+  </si>
+  <si>
+    <t>修罗真仙传--（一部可以修真的传奇）王城争霸</t>
+  </si>
+  <si>
+    <t>ProCam 5</t>
+  </si>
+  <si>
+    <t>超神塔防-自由操作打造专属塔防GDP</t>
+  </si>
+  <si>
+    <t>西游封神传 - 经典挂机回合制手游</t>
+  </si>
+  <si>
+    <t>Palette Tiffany （パレット  ティファニー）</t>
+  </si>
+  <si>
+    <t>斗仙传奇 - 侠风剑客玄幻修仙手游</t>
+  </si>
+  <si>
+    <t>至尊魔刀-碎屏PK秒爆神装！</t>
+  </si>
+  <si>
+    <t>无双三国-创新动作卡牌手游</t>
+  </si>
+  <si>
+    <t>勇者纪元-全新唯美魔幻风ARPG手游</t>
+  </si>
+  <si>
+    <t>幻剑奇缘-MMO唯美风修真ARPG手游</t>
+  </si>
+  <si>
+    <t>全球策略战争-全球即时3D在线军事策略SLG</t>
+  </si>
+  <si>
+    <t>黄金捕鱼-HIGH到不行的捕鱼游戏</t>
+  </si>
+  <si>
+    <t>梦幻仙境-大型在线网络修仙手游</t>
+  </si>
+  <si>
+    <t>一血敢死队</t>
+  </si>
+  <si>
+    <t>妖精大联盟</t>
+  </si>
+  <si>
+    <t>放开我师傅-最新q萌恶搞乱斗手游</t>
+  </si>
+  <si>
+    <t>屠龙战纪—荣耀霸业热血归来</t>
+  </si>
+  <si>
+    <t>沙城争霸-决战前夕全服国战掌控战场</t>
+  </si>
+  <si>
+    <t>风暴部落争霸-联盟英雄</t>
+  </si>
+  <si>
+    <t>DayGram</t>
+  </si>
+  <si>
+    <t>WiFi密码查看器—周边免费WiFi一键连接</t>
+  </si>
+  <si>
+    <t>乱世仙侠-2017唯美梦幻仙侠手游巨作！</t>
+  </si>
+  <si>
+    <t>奥义终章：匠心巨制，无限连击</t>
+  </si>
+  <si>
+    <t>雷霆万钧</t>
+  </si>
+  <si>
+    <t>赤焰一刀——不服就一刀</t>
+  </si>
+  <si>
+    <t>倚天逍遥录-大型热血经典战斗仙侠ARPG手游大作</t>
+  </si>
+  <si>
+    <t>仗剑天涯-混乱的武林</t>
+  </si>
+  <si>
+    <t>狂怒灼心-3D魔幻动作ARPG手游</t>
+  </si>
+  <si>
+    <t>童话大乱斗-创新回合制挂机手游</t>
+  </si>
+  <si>
+    <t>三国称霸-经典三国战争策略大作</t>
+  </si>
+  <si>
+    <t>三国英雄杀-敢不敢制霸全服</t>
+  </si>
+  <si>
+    <t>变态三国志-挂机多倍变态版</t>
+  </si>
+  <si>
+    <t>热血斗魂-单机动作手机游戏软件</t>
+  </si>
+  <si>
+    <t>Peppa Pig Goes Around the World</t>
+  </si>
+  <si>
+    <t>魔女之泉2</t>
+  </si>
+  <si>
+    <t>古剑奇缘-萌系3D修仙动作手游</t>
+  </si>
+  <si>
+    <t>满级传奇—超耐玩散人好混的传奇游戏</t>
+  </si>
+  <si>
+    <t>幻想物语-沙盘魔幻MMO手游</t>
+  </si>
+  <si>
+    <t>仙域九天</t>
+  </si>
+  <si>
+    <t>侠影江湖-唯美武侠风动作3DARPG手游</t>
+  </si>
+  <si>
+    <t>梦幻圣域-3D魔幻世界登录送橙装</t>
+  </si>
+  <si>
+    <t>风云魏吴蜀-史诗级三国风手游！</t>
+  </si>
+  <si>
+    <t>复仇者荣耀ol格斗游戏 - 热血王者英雄热门手游</t>
+  </si>
+  <si>
+    <t>仙境修仙-Q萌梦幻修仙回合制经典手游</t>
+  </si>
+  <si>
+    <t>上古情缘-2017玄幻修仙力作 三世情缘开启</t>
+  </si>
+  <si>
+    <t>神域永恒－经典暗黑系ARPG魔幻手游</t>
+  </si>
+  <si>
+    <t>墨江湖 - 3D极致动作武侠游戏</t>
+  </si>
+  <si>
+    <t>卧虎藏龙高清版-东方魔幻经典动作手游</t>
+  </si>
+  <si>
+    <t>众神之光-回合制守护永恒魔幻大陆之手游</t>
+  </si>
+  <si>
+    <t>挂机战三国-多人对战卡牌游戏</t>
+  </si>
+  <si>
+    <t>坦克指挥官-3D坦克战争题材手游！</t>
+  </si>
+  <si>
+    <t>捕鱼vip-2017最值得期待的捕鱼游戏</t>
+  </si>
+  <si>
+    <t>问鼎三国：SLG卡牌策略手游</t>
+  </si>
+  <si>
+    <t>仙侠大陆传奇-唯美梦幻修仙手游</t>
+  </si>
+  <si>
+    <t>三国霸业-威力加强版三国策略手游</t>
+  </si>
+  <si>
+    <t>风暴纪元-</t>
+  </si>
+  <si>
+    <t>挂机斗群雄-最好玩的策略手游</t>
+  </si>
+  <si>
+    <t>Sky Guide</t>
+  </si>
+  <si>
+    <t>铃声设置助手-一秒同步设置手机铃声，更方便好用的手机铃声助手app</t>
+  </si>
+  <si>
+    <t>仙途-最新角色扮演类修仙手游</t>
+  </si>
+  <si>
+    <t>暴龙超进化 - 神奇精灵世界大冒险</t>
+  </si>
+  <si>
+    <t>影音播放器-宅男宅女必备神器</t>
+  </si>
+  <si>
+    <t>热血重燃</t>
+  </si>
+  <si>
+    <t>九州天辰诀-2017全新战斗类跨服手游</t>
+  </si>
+  <si>
+    <t>戒灵传说-2017史诗级国度魔幻PK手游</t>
+  </si>
+  <si>
+    <t>奇幻魔灵-3D魔幻即时PK十倍爆率</t>
+  </si>
+  <si>
+    <t>刀剑灵域-MMO双修仙幻动作手游</t>
+  </si>
+  <si>
+    <t>灵丘仙缘</t>
+  </si>
+  <si>
+    <t>火武至尊- 经典私服霸业手游</t>
+  </si>
+  <si>
+    <t>全职修仙-2017玄幻修仙力作</t>
+  </si>
+  <si>
+    <t>异界重生: 仙侠觉醒（王者问道修真仙途）</t>
+  </si>
+  <si>
+    <t>决斗学院-召唤怪兽，挑战最强决斗者</t>
+  </si>
+  <si>
+    <t>超级幻影猫 - 重温童年游戏的快乐</t>
+  </si>
+  <si>
+    <t>主公的名义</t>
+  </si>
+  <si>
+    <t>斗破遮天-火爆原著改编不能不玩的仙侠手游（夫妻任务）</t>
+  </si>
+  <si>
+    <t>武动乾坤-唯美风战斗动作3DARPG手游</t>
+  </si>
+  <si>
+    <t>无限大秘境</t>
+  </si>
+  <si>
+    <t>国战无双-三国卡牌策略手游</t>
+  </si>
+  <si>
+    <t>五虎悍将-策略卡牌手游游戏</t>
+  </si>
+  <si>
+    <t>The Franz Kafka Videogame</t>
+  </si>
+  <si>
+    <t>热血三国曹魏传-热血国战策略手游</t>
+  </si>
+  <si>
+    <t>苍穹主宰-热血玄幻3DARPG手游</t>
+  </si>
+  <si>
+    <t>西游奇遇记-降魔篇（星星陪你西游大战三国）</t>
+  </si>
+  <si>
+    <t>驾照考试好助手学车视频hd</t>
+  </si>
+  <si>
+    <t>剑道江湖-大型最新仙侠游戏</t>
+  </si>
+  <si>
+    <t>冠军俱乐部-真实球员数据</t>
+  </si>
+  <si>
+    <t>电驴ed2k在线云播播放</t>
+  </si>
+  <si>
+    <t>天下英雄-Q萌神将战三国霸业</t>
+  </si>
+  <si>
+    <t>战国屠龙-热门手游</t>
+  </si>
+  <si>
+    <t>穿越三国志-三国争霸之英雄无敌</t>
+  </si>
+  <si>
+    <t>影音先锋ColorFly</t>
+  </si>
+  <si>
+    <t>三国戏英杰传-三国志战棋争霸策略游戏</t>
+  </si>
+  <si>
+    <t>永恒魔域-Q版3D西方魔幻ARPG手游</t>
   </si>
 </sst>
 </file>
@@ -846,9 +1221,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -860,7 +1235,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -868,8 +1242,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -882,8 +1264,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -904,22 +1287,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -927,9 +1294,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -942,10 +1308,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -959,14 +1326,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -989,18 +1364,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1013,13 +1388,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,7 +1418,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,7 +1472,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,7 +1490,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,25 +1502,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,19 +1520,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1127,73 +1562,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,11 +1608,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1267,30 +1648,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1304,6 +1661,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1312,10 +1687,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1324,37 +1699,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1363,94 +1738,94 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1783,10 +2158,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B275"/>
+  <dimension ref="A1:B400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="A275" sqref="$A275:$XFD275"/>
+    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
+      <selection activeCell="A400" sqref="$A400:$XFD400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3010,988 +3385,1988 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" s="2" customFormat="1" spans="1:2">
-      <c r="A153" s="2">
+    <row r="153" s="1" customFormat="1" spans="1:2">
+      <c r="A153" s="1">
         <v>279246</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" s="2" customFormat="1" spans="1:2">
-      <c r="A154" s="2">
+    <row r="154" s="1" customFormat="1" spans="1:2">
+      <c r="A154" s="1">
         <v>968685</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" s="2" customFormat="1" spans="1:2">
-      <c r="A155" s="2">
+    <row r="155" s="1" customFormat="1" spans="1:2">
+      <c r="A155" s="1">
         <v>1239890</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" s="2" customFormat="1" spans="1:2">
-      <c r="A156" s="2">
+    <row r="156" s="1" customFormat="1" spans="1:2">
+      <c r="A156" s="1">
         <v>1183126</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" s="2" customFormat="1" spans="1:2">
-      <c r="A157" s="2">
+    <row r="157" s="1" customFormat="1" spans="1:2">
+      <c r="A157" s="1">
         <v>78526</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" s="2" customFormat="1" spans="1:2">
-      <c r="A158" s="2">
+    <row r="158" s="1" customFormat="1" spans="1:2">
+      <c r="A158" s="1">
         <v>1245876</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" s="2" customFormat="1" spans="1:2">
-      <c r="A159" s="2">
+    <row r="159" s="1" customFormat="1" spans="1:2">
+      <c r="A159" s="1">
         <v>1191044</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" s="2" customFormat="1" spans="1:2">
-      <c r="A160" s="2">
+    <row r="160" s="1" customFormat="1" spans="1:2">
+      <c r="A160" s="1">
         <v>1244708</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" s="2" customFormat="1" spans="1:2">
-      <c r="A161" s="2">
+    <row r="161" s="1" customFormat="1" spans="1:2">
+      <c r="A161" s="1">
         <v>1088812</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" s="2" customFormat="1" spans="1:2">
-      <c r="A162" s="2">
+    <row r="162" s="1" customFormat="1" spans="1:2">
+      <c r="A162" s="1">
         <v>1234737</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" s="2" customFormat="1" spans="1:2">
-      <c r="A163" s="2">
+    <row r="163" s="1" customFormat="1" spans="1:2">
+      <c r="A163" s="1">
         <v>1204217</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" s="2" customFormat="1" spans="1:2">
-      <c r="A164" s="2">
+    <row r="164" s="1" customFormat="1" spans="1:2">
+      <c r="A164" s="1">
         <v>1004232</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" s="2" customFormat="1" spans="1:2">
-      <c r="A165" s="2">
+    <row r="165" s="1" customFormat="1" spans="1:2">
+      <c r="A165" s="1">
         <v>1244780</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" s="2" customFormat="1" spans="1:2">
-      <c r="A166" s="2">
+    <row r="166" s="1" customFormat="1" spans="1:2">
+      <c r="A166" s="1">
         <v>1237444</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" s="2" customFormat="1" spans="1:2">
-      <c r="A167" s="2">
+    <row r="167" s="1" customFormat="1" spans="1:2">
+      <c r="A167" s="1">
         <v>1247840</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" s="2" customFormat="1" spans="1:2">
-      <c r="A168" s="2">
+    <row r="168" s="1" customFormat="1" spans="1:2">
+      <c r="A168" s="1">
         <v>1229097</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" s="2" customFormat="1" spans="1:2">
-      <c r="A169" s="2">
+    <row r="169" s="1" customFormat="1" spans="1:2">
+      <c r="A169" s="1">
         <v>1247111</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" s="2" customFormat="1" spans="1:2">
-      <c r="A170" s="2">
+    <row r="170" s="1" customFormat="1" spans="1:2">
+      <c r="A170" s="1">
         <v>5733</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" s="2" customFormat="1" spans="1:2">
-      <c r="A171" s="2">
+    <row r="171" s="1" customFormat="1" spans="1:2">
+      <c r="A171" s="1">
         <v>1241445</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" s="2" customFormat="1" spans="1:2">
-      <c r="A172" s="2">
+    <row r="172" s="1" customFormat="1" spans="1:2">
+      <c r="A172" s="1">
         <v>1249217</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" s="2" customFormat="1" spans="1:2">
-      <c r="A173" s="2">
+    <row r="173" s="1" customFormat="1" spans="1:2">
+      <c r="A173" s="1">
         <v>7934</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" s="2" customFormat="1" spans="1:2">
-      <c r="A174" s="2">
+    <row r="174" s="1" customFormat="1" spans="1:2">
+      <c r="A174" s="1">
         <v>1029188</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" s="2" customFormat="1" spans="1:2">
-      <c r="A175" s="2">
+    <row r="175" s="1" customFormat="1" spans="1:2">
+      <c r="A175" s="1">
         <v>1243951</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" s="2" customFormat="1" spans="1:2">
-      <c r="A176" s="2">
+    <row r="176" s="1" customFormat="1" spans="1:2">
+      <c r="A176" s="1">
         <v>1201947</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B176" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" s="2" customFormat="1" spans="1:2">
-      <c r="A177" s="2">
+    <row r="177" s="1" customFormat="1" spans="1:2">
+      <c r="A177" s="1">
         <v>1253807</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" s="2" customFormat="1" spans="1:2">
-      <c r="A178" s="2">
+    <row r="178" s="1" customFormat="1" spans="1:2">
+      <c r="A178" s="1">
         <v>1247110</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" s="2" customFormat="1" spans="1:2">
-      <c r="A179" s="2">
+    <row r="179" s="1" customFormat="1" spans="1:2">
+      <c r="A179" s="1">
         <v>1255582</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" s="2" customFormat="1" spans="1:2">
-      <c r="A180" s="2">
+    <row r="180" s="1" customFormat="1" spans="1:2">
+      <c r="A180" s="1">
         <v>1241484</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" s="2" customFormat="1" spans="1:2">
-      <c r="A181" s="2">
+    <row r="181" s="1" customFormat="1" spans="1:2">
+      <c r="A181" s="1">
         <v>1201203</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B181" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" s="2" customFormat="1" spans="1:2">
-      <c r="A182" s="2">
+    <row r="182" s="1" customFormat="1" spans="1:2">
+      <c r="A182" s="1">
         <v>1248621</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B182" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" s="2" customFormat="1" spans="1:2">
-      <c r="A183" s="2">
+    <row r="183" s="1" customFormat="1" spans="1:2">
+      <c r="A183" s="1">
         <v>1056534</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" s="2" customFormat="1" spans="1:2">
-      <c r="A184" s="2">
+    <row r="184" s="1" customFormat="1" spans="1:2">
+      <c r="A184" s="1">
         <v>1256453</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B184" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" s="2" customFormat="1" spans="1:2">
-      <c r="A185" s="2">
+    <row r="185" s="1" customFormat="1" spans="1:2">
+      <c r="A185" s="1">
         <v>1248832</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B185" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" s="2" customFormat="1" spans="1:2">
-      <c r="A186" s="2">
+    <row r="186" s="1" customFormat="1" spans="1:2">
+      <c r="A186" s="1">
         <v>5642</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B186" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" s="2" customFormat="1" spans="1:2">
-      <c r="A187" s="2">
+    <row r="187" s="1" customFormat="1" spans="1:2">
+      <c r="A187" s="1">
         <v>1204934</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" s="2" customFormat="1" spans="1:2">
-      <c r="A188" s="2">
+    <row r="188" s="1" customFormat="1" spans="1:2">
+      <c r="A188" s="1">
         <v>1255440</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" s="2" customFormat="1" spans="1:2">
-      <c r="A189" s="2">
+    <row r="189" s="1" customFormat="1" spans="1:2">
+      <c r="A189" s="1">
         <v>1228389</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" s="2" customFormat="1" spans="1:2">
-      <c r="A190" s="2">
+    <row r="190" s="1" customFormat="1" spans="1:2">
+      <c r="A190" s="1">
         <v>1152920</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" s="2" customFormat="1" spans="1:2">
-      <c r="A191" s="2">
+    <row r="191" s="1" customFormat="1" spans="1:2">
+      <c r="A191" s="1">
         <v>1260739</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B191" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" s="2" customFormat="1" spans="1:2">
-      <c r="A192" s="2">
+    <row r="192" s="1" customFormat="1" spans="1:2">
+      <c r="A192" s="1">
         <v>1253034</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" s="2" customFormat="1" spans="1:2">
-      <c r="A193" s="2">
+    <row r="193" s="1" customFormat="1" spans="1:2">
+      <c r="A193" s="1">
         <v>1262834</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" s="2" customFormat="1" spans="1:2">
-      <c r="A194" s="2">
+    <row r="194" s="1" customFormat="1" spans="1:2">
+      <c r="A194" s="1">
         <v>1263468</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" s="2" customFormat="1" spans="1:2">
-      <c r="A195" s="2">
+    <row r="195" s="1" customFormat="1" spans="1:2">
+      <c r="A195" s="1">
         <v>1264067</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196" s="2" customFormat="1" spans="1:2">
-      <c r="A196" s="2">
+    <row r="196" s="1" customFormat="1" spans="1:2">
+      <c r="A196" s="1">
         <v>1004922</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" s="2" customFormat="1" spans="1:2">
-      <c r="A197" s="2">
+    <row r="197" s="1" customFormat="1" spans="1:2">
+      <c r="A197" s="1">
         <v>1187532</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B197" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198" s="2" customFormat="1" spans="1:2">
-      <c r="A198" s="2">
+    <row r="198" s="1" customFormat="1" spans="1:2">
+      <c r="A198" s="1">
         <v>1263728</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B198" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="199" s="2" customFormat="1" spans="1:2">
-      <c r="A199" s="2">
+    <row r="199" s="1" customFormat="1" spans="1:2">
+      <c r="A199" s="1">
         <v>1212994</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B199" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200" s="2" customFormat="1" spans="1:2">
-      <c r="A200" s="2">
+    <row r="200" s="1" customFormat="1" spans="1:2">
+      <c r="A200" s="1">
         <v>1172702</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" s="2" customFormat="1" spans="1:2">
-      <c r="A201" s="2">
+    <row r="201" s="1" customFormat="1" spans="1:2">
+      <c r="A201" s="1">
         <v>1263730</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B201" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" s="2" customFormat="1" spans="1:2">
-      <c r="A202" s="2">
+    <row r="202" s="1" customFormat="1" spans="1:2">
+      <c r="A202" s="1">
         <v>1268923</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B202" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="203" s="2" customFormat="1" spans="1:2">
-      <c r="A203" s="2">
+    <row r="203" s="1" customFormat="1" spans="1:2">
+      <c r="A203" s="1">
         <v>1257994</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B203" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204" s="2" customFormat="1" spans="1:2">
-      <c r="A204" s="2">
+    <row r="204" s="1" customFormat="1" spans="1:2">
+      <c r="A204" s="1">
         <v>784343</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B204" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205" s="2" customFormat="1" spans="1:2">
-      <c r="A205" s="2">
+    <row r="205" s="1" customFormat="1" spans="1:2">
+      <c r="A205" s="1">
         <v>1255563</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" s="2" customFormat="1" spans="1:2">
-      <c r="A206" s="2">
+    <row r="206" s="1" customFormat="1" spans="1:2">
+      <c r="A206" s="1">
         <v>1267153</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B206" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="207" s="2" customFormat="1" spans="1:2">
-      <c r="A207" s="2">
+    <row r="207" s="1" customFormat="1" spans="1:2">
+      <c r="A207" s="1">
         <v>1262377</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B207" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" s="2" customFormat="1" spans="1:2">
-      <c r="A208" s="2">
+    <row r="208" s="1" customFormat="1" spans="1:2">
+      <c r="A208" s="1">
         <v>1243224</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B208" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="209" s="2" customFormat="1" spans="1:2">
-      <c r="A209" s="2">
+    <row r="209" s="1" customFormat="1" spans="1:2">
+      <c r="A209" s="1">
         <v>1242724</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B209" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210" s="2" customFormat="1" spans="1:2">
-      <c r="A210" s="2">
+    <row r="210" s="1" customFormat="1" spans="1:2">
+      <c r="A210" s="1">
         <v>1265873</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B210" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" s="2" customFormat="1" spans="1:2">
-      <c r="A211" s="2">
+    <row r="211" s="1" customFormat="1" spans="1:2">
+      <c r="A211" s="1">
         <v>1228913</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B211" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="212" s="2" customFormat="1" spans="1:2">
-      <c r="A212" s="2">
+    <row r="212" s="1" customFormat="1" spans="1:2">
+      <c r="A212" s="1">
         <v>1270044</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B212" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="213" s="2" customFormat="1" spans="1:2">
-      <c r="A213" s="2">
+    <row r="213" s="1" customFormat="1" spans="1:2">
+      <c r="A213" s="1">
         <v>1256042</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B213" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="214" s="2" customFormat="1" spans="1:2">
-      <c r="A214" s="2">
+    <row r="214" s="1" customFormat="1" spans="1:2">
+      <c r="A214" s="1">
         <v>1216003</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B214" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="215" s="2" customFormat="1" spans="1:2">
-      <c r="A215" s="2">
+    <row r="215" s="1" customFormat="1" spans="1:2">
+      <c r="A215" s="1">
         <v>1221718</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B215" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216" s="2" customFormat="1" spans="1:2">
-      <c r="A216" s="2">
+    <row r="216" s="1" customFormat="1" spans="1:2">
+      <c r="A216" s="1">
         <v>1211296</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B216" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" s="2" customFormat="1" spans="1:2">
-      <c r="A217" s="2">
+    <row r="217" s="1" customFormat="1" spans="1:2">
+      <c r="A217" s="1">
         <v>1271675</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B217" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="218" s="2" customFormat="1" spans="1:2">
-      <c r="A218" s="2">
+    <row r="218" s="1" customFormat="1" spans="1:2">
+      <c r="A218" s="1">
         <v>1225603</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B218" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="219" s="2" customFormat="1" spans="1:2">
-      <c r="A219" s="2">
+    <row r="219" s="1" customFormat="1" spans="1:2">
+      <c r="A219" s="1">
         <v>1269796</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B219" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="220" s="2" customFormat="1" spans="1:2">
-      <c r="A220" s="2">
+    <row r="220" s="1" customFormat="1" spans="1:2">
+      <c r="A220" s="1">
         <v>1247658</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B220" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="221" s="2" customFormat="1" spans="1:2">
-      <c r="A221" s="2">
+    <row r="221" s="1" customFormat="1" spans="1:2">
+      <c r="A221" s="1">
         <v>1252386</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B221" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="222" s="2" customFormat="1" spans="1:2">
-      <c r="A222" s="2">
+    <row r="222" s="1" customFormat="1" spans="1:2">
+      <c r="A222" s="1">
         <v>1186976</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="B222" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223" s="2" customFormat="1" spans="1:2">
-      <c r="A223" s="2">
+    <row r="223" s="1" customFormat="1" spans="1:2">
+      <c r="A223" s="1">
         <v>1106297</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B223" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="224" s="2" customFormat="1" spans="1:2">
-      <c r="A224" s="2">
+    <row r="224" s="1" customFormat="1" spans="1:2">
+      <c r="A224" s="1">
         <v>1264065</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B224" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="225" s="2" customFormat="1" spans="1:2">
-      <c r="A225" s="2">
+    <row r="225" s="1" customFormat="1" spans="1:2">
+      <c r="A225" s="1">
         <v>1272394</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B225" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="226" s="2" customFormat="1" spans="1:2">
-      <c r="A226" s="2">
+    <row r="226" s="1" customFormat="1" spans="1:2">
+      <c r="A226" s="1">
         <v>1243967</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B226" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="227" s="2" customFormat="1" spans="1:2">
-      <c r="A227" s="2">
+    <row r="227" s="1" customFormat="1" spans="1:2">
+      <c r="A227" s="1">
         <v>1270677</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B227" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="228" s="2" customFormat="1" spans="1:2">
-      <c r="A228" s="2">
+    <row r="228" s="1" customFormat="1" spans="1:2">
+      <c r="A228" s="1">
         <v>1224250</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B228" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="229" s="2" customFormat="1" spans="1:2">
-      <c r="A229" s="2">
+    <row r="229" s="1" customFormat="1" spans="1:2">
+      <c r="A229" s="1">
         <v>1256992</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B229" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="230" s="2" customFormat="1" spans="1:2">
-      <c r="A230" s="2">
+    <row r="230" s="1" customFormat="1" spans="1:2">
+      <c r="A230" s="1">
         <v>1119325</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="B230" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="231" s="2" customFormat="1" spans="1:2">
-      <c r="A231" s="2">
+    <row r="231" s="1" customFormat="1" spans="1:2">
+      <c r="A231" s="1">
         <v>1192135</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B231" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="232" s="2" customFormat="1" spans="1:2">
-      <c r="A232" s="2">
+    <row r="232" s="1" customFormat="1" spans="1:2">
+      <c r="A232" s="1">
         <v>1271912</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B232" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="233" s="2" customFormat="1" spans="1:2">
-      <c r="A233" s="2">
+    <row r="233" s="1" customFormat="1" spans="1:2">
+      <c r="A233" s="1">
         <v>1276229</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B233" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="234" s="2" customFormat="1" spans="1:2">
-      <c r="A234" s="2">
+    <row r="234" s="1" customFormat="1" spans="1:2">
+      <c r="A234" s="1">
         <v>1276225</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B234" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="235" s="2" customFormat="1" spans="1:2">
-      <c r="A235" s="2">
+    <row r="235" s="1" customFormat="1" spans="1:2">
+      <c r="A235" s="1">
         <v>1272129</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B235" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="236" s="2" customFormat="1" spans="1:2">
-      <c r="A236" s="2">
+    <row r="236" s="1" customFormat="1" spans="1:2">
+      <c r="A236" s="1">
         <v>1274417</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="B236" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="237" s="2" customFormat="1" spans="1:2">
-      <c r="A237" s="2">
+    <row r="237" s="1" customFormat="1" spans="1:2">
+      <c r="A237" s="1">
         <v>1276721</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B237" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="238" s="2" customFormat="1" spans="1:2">
-      <c r="A238" s="2">
+    <row r="238" s="1" customFormat="1" spans="1:2">
+      <c r="A238" s="1">
         <v>1272963</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B238" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="239" s="2" customFormat="1" spans="1:2">
-      <c r="A239" s="2">
+    <row r="239" s="1" customFormat="1" spans="1:2">
+      <c r="A239" s="1">
         <v>1276822</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B239" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="240" s="2" customFormat="1" spans="1:2">
-      <c r="A240" s="2">
+    <row r="240" s="1" customFormat="1" spans="1:2">
+      <c r="A240" s="1">
         <v>1212803</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B240" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="241" s="2" customFormat="1" spans="1:2">
-      <c r="A241" s="2">
+    <row r="241" s="1" customFormat="1" spans="1:2">
+      <c r="A241" s="1">
         <v>79237</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B241" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="242" s="2" customFormat="1" spans="1:2">
-      <c r="A242" s="2">
+    <row r="242" s="1" customFormat="1" spans="1:2">
+      <c r="A242" s="1">
         <v>1162516</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B242" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="243" s="2" customFormat="1" spans="1:2">
-      <c r="A243" s="2">
+    <row r="243" s="1" customFormat="1" spans="1:2">
+      <c r="A243" s="1">
         <v>1262769</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B243" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="244" s="2" customFormat="1" spans="1:2">
-      <c r="A244" s="2">
+    <row r="244" s="1" customFormat="1" spans="1:2">
+      <c r="A244" s="1">
         <v>1249750</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B244" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="245" s="2" customFormat="1" spans="1:2">
-      <c r="A245" s="2">
+    <row r="245" s="1" customFormat="1" spans="1:2">
+      <c r="A245" s="1">
         <v>1277529</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="B245" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="246" s="2" customFormat="1" spans="1:2">
-      <c r="A246" s="2">
+    <row r="246" s="1" customFormat="1" spans="1:2">
+      <c r="A246" s="1">
         <v>1273494</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="B246" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="247" s="2" customFormat="1" spans="1:2">
-      <c r="A247" s="2">
+    <row r="247" s="1" customFormat="1" spans="1:2">
+      <c r="A247" s="1">
         <v>1265879</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="B247" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="248" s="2" customFormat="1" spans="1:2">
-      <c r="A248" s="2">
+    <row r="248" s="1" customFormat="1" spans="1:2">
+      <c r="A248" s="1">
         <v>1276824</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="B248" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="249" s="2" customFormat="1" spans="1:2">
-      <c r="A249" s="2">
+    <row r="249" s="1" customFormat="1" spans="1:2">
+      <c r="A249" s="1">
         <v>1254647</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="B249" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="250" s="2" customFormat="1" spans="1:2">
-      <c r="A250" s="2">
+    <row r="250" s="1" customFormat="1" spans="1:2">
+      <c r="A250" s="1">
         <v>1280252</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="B250" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="251" s="2" customFormat="1" spans="1:2">
-      <c r="A251" s="2">
+    <row r="251" s="1" customFormat="1" spans="1:2">
+      <c r="A251" s="1">
         <v>1277341</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="B251" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="252" s="2" customFormat="1" spans="1:2">
-      <c r="A252" s="2">
+    <row r="252" s="1" customFormat="1" spans="1:2">
+      <c r="A252" s="1">
         <v>1249564</v>
       </c>
-      <c r="B252" s="2" t="s">
+      <c r="B252" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="253" s="2" customFormat="1" spans="1:2">
-      <c r="A253" s="2">
+    <row r="253" s="1" customFormat="1" spans="1:2">
+      <c r="A253" s="1">
         <v>1250147</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="B253" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="254" s="2" customFormat="1" spans="1:2">
-      <c r="A254" s="2">
+    <row r="254" s="1" customFormat="1" spans="1:2">
+      <c r="A254" s="1">
         <v>1266777</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="B254" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="255" s="2" customFormat="1" spans="1:2">
-      <c r="A255" s="2">
+    <row r="255" s="1" customFormat="1" spans="1:2">
+      <c r="A255" s="1">
         <v>1270710</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="B255" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="256" s="2" customFormat="1" spans="1:2">
-      <c r="A256" s="2">
+    <row r="256" s="1" customFormat="1" spans="1:2">
+      <c r="A256" s="1">
         <v>1091435</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="B256" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="257" s="2" customFormat="1" spans="1:2">
-      <c r="A257" s="2">
+    <row r="257" s="1" customFormat="1" spans="1:2">
+      <c r="A257" s="1">
         <v>1195216</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="B257" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="258" s="2" customFormat="1" spans="1:2">
-      <c r="A258" s="2">
+    <row r="258" s="1" customFormat="1" spans="1:2">
+      <c r="A258" s="1">
         <v>1283502</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="B258" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="259" s="2" customFormat="1" spans="1:2">
-      <c r="A259" s="2">
+    <row r="259" s="1" customFormat="1" spans="1:2">
+      <c r="A259" s="1">
         <v>1266577</v>
       </c>
-      <c r="B259" s="2" t="s">
+      <c r="B259" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="260" s="2" customFormat="1" spans="1:2">
-      <c r="A260" s="2">
+    <row r="260" s="1" customFormat="1" spans="1:2">
+      <c r="A260" s="1">
         <v>1280600</v>
       </c>
-      <c r="B260" s="2" t="s">
+      <c r="B260" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="261" s="2" customFormat="1" spans="1:2">
-      <c r="A261" s="2">
+    <row r="261" s="1" customFormat="1" spans="1:2">
+      <c r="A261" s="1">
         <v>1262744</v>
       </c>
-      <c r="B261" s="2" t="s">
+      <c r="B261" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="262" s="2" customFormat="1" spans="1:2">
-      <c r="A262" s="2">
+    <row r="262" s="1" customFormat="1" spans="1:2">
+      <c r="A262" s="1">
         <v>1276452</v>
       </c>
-      <c r="B262" s="2" t="s">
+      <c r="B262" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="263" s="2" customFormat="1" spans="1:2">
-      <c r="A263" s="2">
+    <row r="263" s="1" customFormat="1" spans="1:2">
+      <c r="A263" s="1">
         <v>1186717</v>
       </c>
-      <c r="B263" s="2" t="s">
+      <c r="B263" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="264" s="2" customFormat="1" spans="1:2">
-      <c r="A264" s="2">
+    <row r="264" s="1" customFormat="1" spans="1:2">
+      <c r="A264" s="1">
         <v>1286376</v>
       </c>
-      <c r="B264" s="2" t="s">
+      <c r="B264" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="265" s="2" customFormat="1" spans="1:2">
-      <c r="A265" s="2">
+    <row r="265" s="1" customFormat="1" spans="1:2">
+      <c r="A265" s="1">
         <v>1283309</v>
       </c>
-      <c r="B265" s="2" t="s">
+      <c r="B265" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="266" s="2" customFormat="1" spans="1:2">
-      <c r="A266" s="2">
+    <row r="266" s="1" customFormat="1" spans="1:2">
+      <c r="A266" s="1">
         <v>1283349</v>
       </c>
-      <c r="B266" s="2" t="s">
+      <c r="B266" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="267" s="2" customFormat="1" spans="1:2">
-      <c r="A267" s="2">
+    <row r="267" s="1" customFormat="1" spans="1:2">
+      <c r="A267" s="1">
         <v>1238587</v>
       </c>
-      <c r="B267" s="2" t="s">
+      <c r="B267" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="268" s="2" customFormat="1" spans="1:2">
-      <c r="A268" s="2">
+    <row r="268" s="1" customFormat="1" spans="1:2">
+      <c r="A268" s="1">
         <v>1276419</v>
       </c>
-      <c r="B268" s="2" t="s">
+      <c r="B268" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="269" s="2" customFormat="1" spans="1:2">
-      <c r="A269" s="2">
+    <row r="269" s="1" customFormat="1" spans="1:2">
+      <c r="A269" s="1">
         <v>1282879</v>
       </c>
-      <c r="B269" s="2" t="s">
+      <c r="B269" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="270" s="2" customFormat="1" spans="1:2">
-      <c r="A270" s="2">
+    <row r="270" s="1" customFormat="1" spans="1:2">
+      <c r="A270" s="1">
         <v>1283085</v>
       </c>
-      <c r="B270" s="2" t="s">
+      <c r="B270" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="271" s="2" customFormat="1" spans="1:2">
-      <c r="A271" s="2">
+    <row r="271" s="1" customFormat="1" spans="1:2">
+      <c r="A271" s="1">
         <v>1140836</v>
       </c>
-      <c r="B271" s="2" t="s">
+      <c r="B271" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="272" s="2" customFormat="1" spans="1:2">
-      <c r="A272" s="2">
+    <row r="272" s="1" customFormat="1" spans="1:2">
+      <c r="A272" s="1">
         <v>1284885</v>
       </c>
-      <c r="B272" s="2" t="s">
+      <c r="B272" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="273" s="2" customFormat="1" spans="1:2">
-      <c r="A273" s="2">
+    <row r="273" s="1" customFormat="1" spans="1:2">
+      <c r="A273" s="1">
         <v>1264561</v>
       </c>
-      <c r="B273" s="2" t="s">
+      <c r="B273" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="274" s="2" customFormat="1" spans="1:2">
-      <c r="A274" s="2">
+    <row r="274" s="1" customFormat="1" spans="1:2">
+      <c r="A274" s="1">
         <v>1282910</v>
       </c>
-      <c r="B274" s="2" t="s">
+      <c r="B274" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="275" s="2" customFormat="1" spans="1:2">
-      <c r="A275" s="2">
+    <row r="275" s="1" customFormat="1" spans="1:2">
+      <c r="A275" s="1">
         <v>1281413</v>
       </c>
-      <c r="B275" s="2" t="s">
+      <c r="B275" s="1" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="276" s="2" customFormat="1" spans="1:2">
+      <c r="A276" s="2">
+        <v>1273464</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" s="2" customFormat="1" spans="1:2">
+      <c r="A277" s="2">
+        <v>1291119</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" s="2" customFormat="1" spans="1:2">
+      <c r="A278" s="2">
+        <v>1282067</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" s="2" customFormat="1" spans="1:2">
+      <c r="A279" s="2">
+        <v>1265358</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" s="2" customFormat="1" spans="1:2">
+      <c r="A280" s="2">
+        <v>1284322</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" s="2" customFormat="1" spans="1:2">
+      <c r="A281" s="2">
+        <v>81436</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" s="2" customFormat="1" spans="1:2">
+      <c r="A282" s="2">
+        <v>5660</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" s="2" customFormat="1" spans="1:2">
+      <c r="A283" s="2">
+        <v>1270542</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" s="2" customFormat="1" spans="1:2">
+      <c r="A284" s="2">
+        <v>8091</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" s="2" customFormat="1" spans="1:2">
+      <c r="A285" s="2">
+        <v>1264124</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" s="2" customFormat="1" spans="1:2">
+      <c r="A286" s="2">
+        <v>1262527</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" s="2" customFormat="1" spans="1:2">
+      <c r="A287" s="2">
+        <v>1271387</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" s="2" customFormat="1" spans="1:2">
+      <c r="A288" s="2">
+        <v>1290466</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" s="2" customFormat="1" spans="1:2">
+      <c r="A289" s="2">
+        <v>1286464</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" s="2" customFormat="1" spans="1:2">
+      <c r="A290" s="2">
+        <v>1295957</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" s="2" customFormat="1" spans="1:2">
+      <c r="A291" s="2">
+        <v>1286787</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" s="2" customFormat="1" spans="1:2">
+      <c r="A292" s="2">
+        <v>1290235</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" s="2" customFormat="1" spans="1:2">
+      <c r="A293" s="2">
+        <v>1290716</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" s="2" customFormat="1" spans="1:2">
+      <c r="A294" s="2">
+        <v>1290924</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" s="2" customFormat="1" spans="1:2">
+      <c r="A295" s="2">
+        <v>1273271</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" s="2" customFormat="1" spans="1:2">
+      <c r="A296" s="2">
+        <v>1283354</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" s="2" customFormat="1" spans="1:2">
+      <c r="A297" s="2">
+        <v>1173067</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" s="2" customFormat="1" spans="1:2">
+      <c r="A298" s="2">
+        <v>1290565</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" s="2" customFormat="1" spans="1:2">
+      <c r="A299" s="2">
+        <v>1175279</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" s="2" customFormat="1" spans="1:2">
+      <c r="A300" s="2">
+        <v>1285650</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" s="2" customFormat="1" spans="1:2">
+      <c r="A301" s="2">
+        <v>1301526</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" s="2" customFormat="1" spans="1:2">
+      <c r="A302" s="2">
+        <v>1301380</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" s="2" customFormat="1" spans="1:2">
+      <c r="A303" s="2">
+        <v>1004233</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" s="2" customFormat="1" spans="1:2">
+      <c r="A304" s="2">
+        <v>1299980</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" s="2" customFormat="1" spans="1:2">
+      <c r="A305" s="2">
+        <v>1295146</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" s="2" customFormat="1" spans="1:2">
+      <c r="A306" s="2">
+        <v>1294833</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" s="2" customFormat="1" spans="1:2">
+      <c r="A307" s="2">
+        <v>86329</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" s="2" customFormat="1" spans="1:2">
+      <c r="A308" s="2">
+        <v>279339</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" s="2" customFormat="1" spans="1:2">
+      <c r="A309" s="2">
+        <v>5311</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" s="2" customFormat="1" spans="1:2">
+      <c r="A310" s="2">
+        <v>1195286</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" s="2" customFormat="1" spans="1:2">
+      <c r="A311" s="2">
+        <v>1304664</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" s="2" customFormat="1" spans="1:2">
+      <c r="A312" s="2">
+        <v>1264408</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" s="2" customFormat="1" spans="1:2">
+      <c r="A313" s="2">
+        <v>1195199</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" s="2" customFormat="1" spans="1:2">
+      <c r="A314" s="2">
+        <v>1290246</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" s="2" customFormat="1" spans="1:2">
+      <c r="A315" s="2">
+        <v>1304662</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" s="2" customFormat="1" spans="1:2">
+      <c r="A316" s="2">
+        <v>1301936</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" s="2" customFormat="1" spans="1:2">
+      <c r="A317" s="2">
+        <v>1273014</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" s="2" customFormat="1" spans="1:2">
+      <c r="A318" s="2">
+        <v>1304661</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" s="2" customFormat="1" spans="1:2">
+      <c r="A319" s="2">
+        <v>1262791</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" s="2" customFormat="1" spans="1:2">
+      <c r="A320" s="2">
+        <v>1305580</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" s="2" customFormat="1" spans="1:2">
+      <c r="A321" s="2">
+        <v>1267291</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" s="2" customFormat="1" spans="1:2">
+      <c r="A322" s="2">
+        <v>1307085</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" s="2" customFormat="1" spans="1:2">
+      <c r="A323" s="2">
+        <v>1280761</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" s="2" customFormat="1" spans="1:2">
+      <c r="A324" s="2">
+        <v>1220441</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" s="2" customFormat="1" spans="1:2">
+      <c r="A325" s="2">
+        <v>1304534</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" s="2" customFormat="1" spans="1:2">
+      <c r="A326" s="2">
+        <v>1283267</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" s="2" customFormat="1" spans="1:2">
+      <c r="A327" s="2">
+        <v>7994</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" s="2" customFormat="1" spans="1:2">
+      <c r="A328" s="2">
+        <v>1161385</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" s="2" customFormat="1" spans="1:2">
+      <c r="A329" s="2">
+        <v>1273266</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" s="2" customFormat="1" spans="1:2">
+      <c r="A330" s="2">
+        <v>1313702</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" s="2" customFormat="1" spans="1:2">
+      <c r="A331" s="2">
+        <v>1284456</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" s="2" customFormat="1" spans="1:2">
+      <c r="A332" s="2">
+        <v>1281093</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" s="2" customFormat="1" spans="1:2">
+      <c r="A333" s="2">
+        <v>1250275</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" s="2" customFormat="1" spans="1:2">
+      <c r="A334" s="2">
+        <v>1287388</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" s="2" customFormat="1" spans="1:2">
+      <c r="A335" s="2">
+        <v>1292214</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" s="2" customFormat="1" spans="1:2">
+      <c r="A336" s="2">
+        <v>1266599</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" s="2" customFormat="1" spans="1:2">
+      <c r="A337" s="2">
+        <v>1145255</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" s="2" customFormat="1" spans="1:2">
+      <c r="A338" s="2">
+        <v>1230883</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" s="2" customFormat="1" spans="1:2">
+      <c r="A339" s="2">
+        <v>1155315</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" s="2" customFormat="1" spans="1:2">
+      <c r="A340" s="2">
+        <v>1294937</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" s="2" customFormat="1" spans="1:2">
+      <c r="A341" s="2">
+        <v>1063414</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" s="2" customFormat="1" spans="1:2">
+      <c r="A342" s="2">
+        <v>718039</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" s="2" customFormat="1" spans="1:2">
+      <c r="A343" s="2">
+        <v>1310623</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" s="2" customFormat="1" spans="1:2">
+      <c r="A344" s="2">
+        <v>1310883</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" s="2" customFormat="1" spans="1:2">
+      <c r="A345" s="2">
+        <v>1265817</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" s="2" customFormat="1" spans="1:2">
+      <c r="A346" s="2">
+        <v>1318146</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" s="2" customFormat="1" spans="1:2">
+      <c r="A347" s="2">
+        <v>1236348</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" s="2" customFormat="1" spans="1:2">
+      <c r="A348" s="2">
+        <v>1285013</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" s="2" customFormat="1" spans="1:2">
+      <c r="A349" s="2">
+        <v>1303885</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" s="2" customFormat="1" spans="1:2">
+      <c r="A350" s="2">
+        <v>1276457</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" s="2" customFormat="1" spans="1:2">
+      <c r="A351" s="2">
+        <v>1296394</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" s="2" customFormat="1" spans="1:2">
+      <c r="A352" s="2">
+        <v>1290238</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" s="2" customFormat="1" spans="1:2">
+      <c r="A353" s="2">
+        <v>1322008</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" s="2" customFormat="1" spans="1:2">
+      <c r="A354" s="2">
+        <v>1322130</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" s="2" customFormat="1" spans="1:2">
+      <c r="A355" s="2">
+        <v>1302053</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" s="2" customFormat="1" spans="1:2">
+      <c r="A356" s="2">
+        <v>1316773</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" s="2" customFormat="1" spans="1:2">
+      <c r="A357" s="2">
+        <v>1241510</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" s="2" customFormat="1" spans="1:2">
+      <c r="A358" s="2">
+        <v>1319666</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" s="2" customFormat="1" spans="1:2">
+      <c r="A359" s="2">
+        <v>1270070</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" s="2" customFormat="1" spans="1:2">
+      <c r="A360" s="2">
+        <v>1310969</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" s="2" customFormat="1" spans="1:2">
+      <c r="A361" s="2">
+        <v>1248593</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" s="2" customFormat="1" spans="1:2">
+      <c r="A362" s="2">
+        <v>1211078</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" s="2" customFormat="1" spans="1:2">
+      <c r="A363" s="2">
+        <v>1320874</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" s="2" customFormat="1" spans="1:2">
+      <c r="A364" s="2">
+        <v>1314416</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" s="2" customFormat="1" spans="1:2">
+      <c r="A365" s="2">
+        <v>3847</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" s="2" customFormat="1" spans="1:2">
+      <c r="A366" s="2">
+        <v>332305</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367" s="2" customFormat="1" spans="1:2">
+      <c r="A367" s="2">
+        <v>1312033</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368" s="2" customFormat="1" spans="1:2">
+      <c r="A368" s="2">
+        <v>1186970</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" s="2" customFormat="1" spans="1:2">
+      <c r="A369" s="2">
+        <v>489617</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" s="2" customFormat="1" spans="1:2">
+      <c r="A370" s="2">
+        <v>1329811</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" s="2" customFormat="1" spans="1:2">
+      <c r="A371" s="2">
+        <v>1324897</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372" s="2" customFormat="1" spans="1:2">
+      <c r="A372" s="2">
+        <v>1304817</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373" s="2" customFormat="1" spans="1:2">
+      <c r="A373" s="2">
+        <v>1290487</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" s="2" customFormat="1" spans="1:2">
+      <c r="A374" s="2">
+        <v>1329025</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375" s="2" customFormat="1" spans="1:2">
+      <c r="A375" s="2">
+        <v>480249</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376" s="2" customFormat="1" spans="1:2">
+      <c r="A376" s="2">
+        <v>1283358</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" s="2" customFormat="1" spans="1:2">
+      <c r="A377" s="2">
+        <v>1320890</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" s="2" customFormat="1" spans="1:2">
+      <c r="A378" s="2">
+        <v>1245673</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379" s="2" customFormat="1" spans="1:2">
+      <c r="A379" s="2">
+        <v>1327721</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380" s="2" customFormat="1" spans="1:2">
+      <c r="A380" s="2">
+        <v>9346</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" s="2" customFormat="1" spans="1:2">
+      <c r="A381" s="2">
+        <v>1326690</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382" s="2" customFormat="1" spans="1:2">
+      <c r="A382" s="2">
+        <v>1294702</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383" s="2" customFormat="1" spans="1:2">
+      <c r="A383" s="2">
+        <v>1309421</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" s="2" customFormat="1" spans="1:2">
+      <c r="A384" s="2">
+        <v>1323146</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" s="2" customFormat="1" spans="1:2">
+      <c r="A385" s="2">
+        <v>1331433</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" s="2" customFormat="1" spans="1:2">
+      <c r="A386" s="2">
+        <v>1314695</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387" s="2" customFormat="1" spans="1:2">
+      <c r="A387" s="2">
+        <v>1327697</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388" s="2" customFormat="1" spans="1:2">
+      <c r="A388" s="2">
+        <v>1336059</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" s="2" customFormat="1" spans="1:2">
+      <c r="A389" s="2">
+        <v>1264234</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390" s="2" customFormat="1" spans="1:2">
+      <c r="A390" s="2">
+        <v>768937</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" s="2" customFormat="1" spans="1:2">
+      <c r="A391" s="2">
+        <v>8781</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" s="2" customFormat="1" spans="1:2">
+      <c r="A392" s="2">
+        <v>1334895</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" s="2" customFormat="1" spans="1:2">
+      <c r="A393" s="2">
+        <v>1211327</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394" s="2" customFormat="1" spans="1:2">
+      <c r="A394" s="2">
+        <v>1135548</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395" s="2" customFormat="1" spans="1:2">
+      <c r="A395" s="2">
+        <v>1256212</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396" s="2" customFormat="1" spans="1:2">
+      <c r="A396" s="2">
+        <v>1324735</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397" s="2" customFormat="1" spans="1:2">
+      <c r="A397" s="2">
+        <v>1305628</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" s="2" customFormat="1" spans="1:2">
+      <c r="A398" s="2">
+        <v>1335061</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" s="2" customFormat="1" spans="1:2">
+      <c r="A399" s="2">
+        <v>1338043</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" s="2" customFormat="1" spans="1:2">
+      <c r="A400" s="2">
+        <v>1300417</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
